--- a/hebrewOutputs/hebrew82Comperation_9_Common_alpha=0.36.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_9_Common_alpha=0.36.xlsx
@@ -34,15 +34,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי שלום. </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי שלום. </t>
-  </si>
-  <si>
     <t>הורה:</t>
   </si>
   <si>
@@ -58,6 +58,9 @@
     <t>crit</t>
   </si>
   <si>
+    <t>disagree</t>
+  </si>
+  <si>
     <t>שלום, קוראים לי דוק.</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">על מה אתה מדבר? מה זה גם סכרת? </t>
-  </si>
-  <si>
-    <t>disagree</t>
   </si>
   <si>
     <t xml:space="preserve">אין לנו את זה לא במשפחה לא זה לא לא... </t>
@@ -829,21 +829,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -879,27 +879,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -907,27 +907,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -963,55 +963,55 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1047,24 +1047,24 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1089,27 +1089,27 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1145,13 +1145,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1159,27 +1159,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1201,27 +1201,27 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1229,13 +1229,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1257,41 +1257,41 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1299,27 +1299,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1341,41 +1341,41 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1383,27 +1383,27 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1411,27 +1411,27 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1442,10 +1442,10 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1456,10 +1456,10 @@
         <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1470,13 +1470,13 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1487,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1498,13 +1498,13 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1512,10 +1512,10 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1526,13 +1526,13 @@
         <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1568,10 +1568,10 @@
         <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1582,13 +1582,13 @@
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1599,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1624,10 +1624,10 @@
         <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1638,13 +1638,13 @@
         <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1652,10 +1652,10 @@
         <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1666,10 +1666,10 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1680,13 +1680,13 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1694,10 +1694,10 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1708,13 +1708,13 @@
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1722,10 +1722,10 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -1736,13 +1736,13 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1750,10 +1750,10 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -1761,16 +1761,16 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1778,10 +1778,10 @@
         <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1792,13 +1792,13 @@
         <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1862,13 +1862,13 @@
         <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1876,10 +1876,10 @@
         <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -1890,10 +1890,10 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1904,10 +1904,10 @@
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1915,16 +1915,16 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1932,10 +1932,10 @@
         <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -1946,13 +1946,13 @@
         <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1960,10 +1960,10 @@
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1974,10 +1974,10 @@
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -1988,10 +1988,10 @@
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2002,13 +2002,13 @@
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2033,7 +2033,7 @@
         <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2044,13 +2044,13 @@
         <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2058,10 +2058,10 @@
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -2072,13 +2072,13 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2086,10 +2086,10 @@
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2100,13 +2100,13 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2117,7 +2117,7 @@
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2128,10 +2128,10 @@
         <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2142,10 +2142,10 @@
         <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2159,10 +2159,10 @@
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2173,10 +2173,10 @@
         <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2201,10 +2201,10 @@
         <v>118</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2240,10 +2240,10 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -2257,10 +2257,10 @@
         <v>123</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2268,10 +2268,10 @@
         <v>124</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -2282,10 +2282,10 @@
         <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2296,10 +2296,10 @@
         <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -2310,10 +2310,10 @@
         <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2327,10 +2327,10 @@
         <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2341,7 +2341,7 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2355,10 +2355,10 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2369,10 +2369,10 @@
         <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2380,13 +2380,13 @@
         <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2394,10 +2394,10 @@
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -2408,13 +2408,13 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2425,10 +2425,10 @@
         <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2439,10 +2439,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2478,10 +2478,10 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2492,10 +2492,10 @@
         <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -2506,10 +2506,10 @@
         <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -2520,13 +2520,13 @@
         <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2537,10 +2537,10 @@
         <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2551,7 +2551,7 @@
         <v>93</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -2562,13 +2562,13 @@
         <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2579,7 +2579,7 @@
         <v>93</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -2590,13 +2590,13 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2621,10 +2621,10 @@
         <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2632,13 +2632,13 @@
         <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
